--- a/TestData/Litigation_Notice_Upload_Format2.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H22"/>
+  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1037,7 +1037,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="4">
-        <v>928225</v>
+        <v>9286225</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>73</v>
@@ -1118,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>928225</v>
+        <v>9286225</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>47</v>
@@ -1181,7 +1181,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="10">
-        <v>8782</v>
+        <v>87782</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>50</v>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>928225</v>
+        <v>9286225</v>
       </c>
       <c r="B2" s="14">
         <v>58</v>
